--- a/操作说明/保险公司命名及编号规范v1.0.xlsx
+++ b/操作说明/保险公司命名及编号规范v1.0.xlsx
@@ -3664,8 +3664,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0&quot;、&quot;"/>
   </numFmts>
@@ -3797,14 +3797,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3818,6 +3849,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -3826,17 +3865,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3848,25 +3886,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3874,14 +3895,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3903,6 +3924,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -3915,28 +3937,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3974,7 +3974,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3986,7 +4040,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3998,25 +4052,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4028,7 +4094,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4040,49 +4106,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4094,25 +4118,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4124,7 +4136,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4136,25 +4148,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4179,6 +4179,39 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4209,54 +4242,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4280,16 +4265,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4298,131 +4298,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7227,7 +7227,7 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="K145:K151 I152:K159 I144:K144 K124 I125:K136 L113:L116 G128:H128 G127:H127 D127:E127 G129:H129 D129 B125:B126 B120 B112 B165 B152 B144 B130 B107 B102 B103:B106 B127:B129 B131:B143 B145:B151 B153:B164 B108:B111 B113:B119 B121:B124 B92:B98 C120:H120 C121:G124 C112:H112 C113:H119 D107:H107 C108:H111 D102:H102 I93:L98 I100:L112 I118:K119 C165:H165 B166:H167 C152:H152 C153:H164 C144:H144 C145:G151 C130:H130 C131:H143 C126:H126 D128:E128 C103:H106 B52:B67 B39:B50 B36" numberStoredAsText="1"/>
+    <ignoredError sqref="B36 B39:B50 B52:B67 C103:H106 D128:E128 C126:H126 C131:H143 C130:H130 C145:G151 C144:H144 C153:H164 C152:H152 B166:H167 C165:H165 I118:K119 I100:L112 I93:L98 D102:H102 C108:H111 D107:H107 C113:H119 C112:H112 C121:G124 C120:H120 B92:B98 B121:B124 B113:B119 B108:B111 B153:B164 B145:B151 B131:B143 B127:B129 B103:B106 B102 B107 B130 B144 B152 B165 B112 B120 B125:B126 D129 G129:H129 D127:E127 G127:H127 G128:H128 L113:L116 I125:K136 K124 I144:K144 I152:K159 K145:K151" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7238,7 +7238,7 @@
   <dimension ref="A1:J182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.3"/>
